--- a/trend_results/Rivers/MangatepopoatdsIntake_106f8d2943.xlsx
+++ b/trend_results/Rivers/MangatepopoatdsIntake_106f8d2943.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.993559235696732</v>
+        <v>0.006440764303268</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">

--- a/trend_results/Rivers/MangatepopoatdsIntake_106f8d2943.xlsx
+++ b/trend_results/Rivers/MangatepopoatdsIntake_106f8d2943.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.212681371162066</v>
+        <v>0.922559112333533</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="H2" t="n">
-        <v>0.725490196078431</v>
+        <v>0.784313725490196</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>5.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.306932773109244</v>
+        <v>-0.714619565217391</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.436153707376606</v>
+        <v>-1.34099268223529</v>
       </c>
       <c r="M2" t="n">
-        <v>0.964515319154865</v>
+        <v>0.06006286921909</v>
       </c>
       <c r="N2" t="n">
-        <v>5.58059587471352</v>
+        <v>-12.9930830039526</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -649,14 +649,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.0028038731367788</v>
+        <v>0.269627285543471</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.648148148148148</v>
+        <v>0.9019607843137259</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>10.78</v>
       </c>
       <c r="K3" t="n">
-        <v>0.407547644244451</v>
+        <v>-0.0232643312101912</v>
       </c>
       <c r="L3" t="n">
-        <v>0.153289835546819</v>
+        <v>-0.0994787740604119</v>
       </c>
       <c r="M3" t="n">
-        <v>0.607723067439248</v>
+        <v>0.0589729079448083</v>
       </c>
       <c r="N3" t="n">
-        <v>10.1886911061113</v>
+        <v>-0.215810122543517</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -744,10 +744,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.883585913506682</v>
+        <v>0.141565435331173</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0202020202020202</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.333333333333333</v>
+        <v>0.450980392156863</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0003042482299042</v>
+        <v>0.0009925271739130001</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0007655966014247</v>
+        <v>-0.0002324660073018</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.001337912087912</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.90155143690129</v>
+        <v>7.63482441471572</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -847,10 +847,10 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0.956521739130435</v>
+        <v>0.9411764705882349</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0543478260869565</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -925,13 +925,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9955602196150271</v>
+        <v>0.977895740179676</v>
       </c>
       <c r="G6" t="n">
-        <v>0.515151515151515</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="H6" t="n">
-        <v>0.111111111111111</v>
+        <v>0.09803921568627449</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -958,7 +958,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1005,42 +1005,42 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.455615442904616</v>
+        <v>0.012676606964227</v>
       </c>
       <c r="G7" t="n">
-        <v>0.343434343434343</v>
+        <v>0.215686274509804</v>
       </c>
       <c r="H7" t="n">
-        <v>0.393939393939394</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.0017588282504012</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.0028675415087161</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>19.5425361155698</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.006440764303268</v>
+        <v>0.000528279958919</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5</v>
+        <v>0.745098039215686</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.65</v>
+        <v>7.58</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0160549450549451</v>
+        <v>-0.0670867346938774</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.025873588644073</v>
+        <v>-0.104357142857143</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0063356268352647</v>
+        <v>-0.0401373626373627</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.20986856280974</v>
+        <v>-0.885049270367776</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1183,24 +1183,24 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.288051771638593</v>
+        <v>0.0076611205275503</v>
       </c>
       <c r="G9" t="n">
-        <v>0.101010101010101</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="H9" t="n">
-        <v>0.393939393939394</v>
+        <v>0.568627450980392</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1209,16 +1209,16 @@
         <v>0.014</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001667047010497</v>
+        <v>0.0019904632152588</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0002291003326378</v>
+        <v>0.0004982680100253</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0006475096553116</v>
+        <v>0.0035503732035046</v>
       </c>
       <c r="N9" t="n">
-        <v>1.19074786464106</v>
+        <v>14.2175943947061</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1257,6 +1257,730 @@
         </is>
       </c>
       <c r="W9" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.09299974879615561</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0092592592592592</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.657407407407407</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.16641970722635</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.0253971753047344</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.451085384891948</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.322589798087</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>1820825.9</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5674346.8</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.791172050256838</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.811111111111111</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10.765</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.019991789819376</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.0150089665633143</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0413825110222806</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.185711006218077</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Likely increasing</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>1820825.9</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5674346.8</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.982466553558188</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.323232323232323</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.000494248985115</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.0009022231370934</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-3.29499323410014</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>1820825.9</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5674346.8</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.565881289282962</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.947368421052632</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.06315789473684209</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>1820825.9</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5674346.8</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.991101600566305</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.626262626262626</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.101010101010101</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>1820825.9</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5674346.8</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0977547528911442</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.373737373737374</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0006012210924073</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>1820825.9</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5674346.8</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.000430668566457</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.526315789473684</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.0194134396355354</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.0285672126966327</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.0107077589235727</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.254102613030568</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>1820825.9</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5674346.8</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.140182542761315</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.101010101010101</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.525252525252525</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.000332347588717</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.0001429549902152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.000736719146512</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.37391134797868</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>1820825.9</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5674346.8</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
         <is>
           <t>g/m3</t>
         </is>

--- a/trend_results/Rivers/MangatepopoatdsIntake_106f8d2943.xlsx
+++ b/trend_results/Rivers/MangatepopoatdsIntake_106f8d2943.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="60">
   <si>
     <t>site name</t>
   </si>
@@ -112,22 +112,31 @@
     <t>SIN (Soluble Inorganic nitrogen)</t>
   </si>
   <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Total Phosphorus</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>&lt; 5 Non-censored values</t>
+    <t>&lt; 3 unique values</t>
   </si>
   <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
     <t>RepSite</t>
   </si>
   <si>
-    <t>Very likely improving</t>
+    <t>Extremely likely improving</t>
   </si>
   <si>
     <t>Unlikely increasing</t>
@@ -139,28 +148,31 @@
     <t>Not Analysed improving</t>
   </si>
   <si>
-    <t>Extremely likely improving</t>
+    <t>Virtually certain improving</t>
   </si>
   <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
     <t>Exceptionally unlikely increasing</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
     <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
   </si>
   <si>
     <t>Ruapehu District</t>
@@ -539,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,40 +642,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>0.922559112333533</v>
+        <v>0.966094009885001</v>
       </c>
       <c r="G2">
-        <v>0.0196078431372549</v>
+        <v>0.0188679245283019</v>
       </c>
       <c r="H2">
-        <v>0.784313725490196</v>
+        <v>0.811320754716981</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>5.5</v>
+        <v>4.05</v>
       </c>
       <c r="K2">
-        <v>-0.714619565217391</v>
+        <v>-0.834391763687637</v>
       </c>
       <c r="L2">
-        <v>-1.34099268223529</v>
+        <v>-1.44464315507055</v>
       </c>
       <c r="M2">
-        <v>0.06006286921909</v>
+        <v>-0.114577462001488</v>
       </c>
       <c r="N2">
-        <v>-12.9930830039526</v>
+        <v>-20.6022657700651</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q2">
         <v>1820825.9</v>
@@ -672,19 +684,19 @@
         <v>5674346.8</v>
       </c>
       <c r="S2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -701,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>0.269627285543471</v>
+        <v>0.239750061093477</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.9019607843137259</v>
+        <v>0.872727272727273</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -719,22 +731,22 @@
         <v>10.78</v>
       </c>
       <c r="K3">
-        <v>-0.0232643312101912</v>
+        <v>-0.0200686813186815</v>
       </c>
       <c r="L3">
-        <v>-0.0994787740604119</v>
+        <v>-0.0899611739375645</v>
       </c>
       <c r="M3">
-        <v>0.0589729079448083</v>
+        <v>0.0420443956309975</v>
       </c>
       <c r="N3">
-        <v>-0.215810122543517</v>
+        <v>-0.186165874941387</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q3">
         <v>1820825.9</v>
@@ -743,19 +755,19 @@
         <v>5674346.8</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -772,16 +784,16 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>0.141565435331173</v>
+        <v>0.109204593309621</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.450980392156863</v>
+        <v>0.385964912280702</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -790,22 +802,22 @@
         <v>0.013</v>
       </c>
       <c r="K4">
-        <v>0.0009925271739130001</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="L4">
-        <v>-0.0002324660073018</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.001337912087912</v>
+        <v>0.001611217139809</v>
       </c>
       <c r="N4">
-        <v>7.63482441471572</v>
+        <v>7.71872358410819</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q4">
         <v>1820825.9</v>
@@ -814,19 +826,19 @@
         <v>5674346.8</v>
       </c>
       <c r="S4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -843,22 +855,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G5">
-        <v>0.9411764705882349</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="H5">
-        <v>0.07843137254901961</v>
+        <v>0.0535714285714286</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q5">
         <v>1820825.9</v>
@@ -867,19 +879,19 @@
         <v>5674346.8</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -896,16 +908,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>0.977895740179676</v>
+        <v>0.995341716047598</v>
       </c>
       <c r="G6">
-        <v>0.803921568627451</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="H6">
-        <v>0.09803921568627449</v>
+        <v>0.0701754385964912</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -926,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q6">
         <v>1820825.9</v>
@@ -938,19 +950,19 @@
         <v>5674346.8</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -967,40 +979,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>0.012676606964227</v>
+        <v>0.015405310682146</v>
       </c>
       <c r="G7">
-        <v>0.215686274509804</v>
+        <v>0.175438596491228</v>
       </c>
       <c r="H7">
-        <v>0.392156862745098</v>
+        <v>0.385964912280702</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="K7">
-        <v>0.0017588282504012</v>
+        <v>0.0014447892351227</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.0028675415087161</v>
+        <v>0.0023475297030785</v>
       </c>
       <c r="N7">
-        <v>19.5425361155698</v>
+        <v>14.4478923512272</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q7">
         <v>1820825.9</v>
@@ -1009,19 +1021,19 @@
         <v>5674346.8</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1038,40 +1050,40 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>0.000528279958919</v>
+        <v>0.06509894161938699</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.745098039215686</v>
+        <v>0.75</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.58</v>
+        <v>7.57</v>
       </c>
       <c r="K8">
-        <v>-0.0670867346938774</v>
+        <v>-0.0291071927175338</v>
       </c>
       <c r="L8">
-        <v>-0.104357142857143</v>
+        <v>-0.06256518254859959</v>
       </c>
       <c r="M8">
-        <v>-0.0401373626373627</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>-0.885049270367776</v>
+        <v>-0.384507169320129</v>
       </c>
       <c r="O8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <v>1820825.9</v>
@@ -1080,16 +1092,16 @@
         <v>5674346.8</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1106,40 +1118,40 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>0.0076611205275503</v>
+        <v>0.0090460490340024</v>
       </c>
       <c r="G9">
-        <v>0.0392156862745098</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.568627450980392</v>
+        <v>0.614035087719298</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="K9">
-        <v>0.0019904632152588</v>
+        <v>0.0020068681318681</v>
       </c>
       <c r="L9">
-        <v>0.0004982680100253</v>
+        <v>0.0004024425228066</v>
       </c>
       <c r="M9">
-        <v>0.0035503732035046</v>
+        <v>0.0030050368726555</v>
       </c>
       <c r="N9">
-        <v>14.2175943947061</v>
+        <v>12.5429258241758</v>
       </c>
       <c r="O9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q9">
         <v>1820825.9</v>
@@ -1148,19 +1160,19 @@
         <v>5674346.8</v>
       </c>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,49 +1180,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>0.09299974879615561</v>
+        <v>0.374774252439747</v>
       </c>
       <c r="G10">
-        <v>0.0092592592592592</v>
+        <v>0.087719298245614</v>
       </c>
       <c r="H10">
-        <v>0.657407407407407</v>
+        <v>0.192982456140351</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>3.85</v>
+        <v>0.03</v>
       </c>
       <c r="K10">
-        <v>0.16641970722635</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>-0.0253971753047344</v>
+        <v>-0.0005067942396263</v>
       </c>
       <c r="M10">
-        <v>0.451085384891948</v>
+        <v>0.0033299732492166</v>
       </c>
       <c r="N10">
-        <v>4.322589798087</v>
+        <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q10">
         <v>1820825.9</v>
@@ -1219,19 +1231,19 @@
         <v>5674346.8</v>
       </c>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,49 +1251,49 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>0.791172050256838</v>
+        <v>0.0147522301233663</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.811111111111111</v>
+        <v>0.421052631578947</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.765</v>
+        <v>0.014</v>
       </c>
       <c r="K11">
-        <v>0.019991789819376</v>
+        <v>0.0010051610292238</v>
       </c>
       <c r="L11">
-        <v>-0.0150089665633143</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.0413825110222806</v>
+        <v>0.001674178762414</v>
       </c>
       <c r="N11">
-        <v>0.185711006218077</v>
+        <v>7.17972163731302</v>
       </c>
       <c r="O11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q11">
         <v>1820825.9</v>
@@ -1290,19 +1302,19 @@
         <v>5674346.8</v>
       </c>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,7 +1322,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1319,40 +1331,40 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12">
-        <v>0.982466553558188</v>
+        <v>0.249586409274314</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0091743119266055</v>
       </c>
       <c r="H12">
-        <v>0.323232323232323</v>
+        <v>0.623853211009174</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0.015</v>
+        <v>3.75</v>
       </c>
       <c r="K12">
-        <v>-0.000494248985115</v>
+        <v>0.0655318414826498</v>
       </c>
       <c r="L12">
-        <v>-0.0009022231370934</v>
+        <v>-0.106049623428312</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.273159673137827</v>
       </c>
       <c r="N12">
-        <v>-3.29499323410014</v>
+        <v>1.74751577287066</v>
       </c>
       <c r="O12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q12">
         <v>1820825.9</v>
@@ -1361,19 +1373,19 @@
         <v>5674346.8</v>
       </c>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,49 +1393,49 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13">
-        <v>0.565881289282962</v>
+        <v>0.77137778918806</v>
       </c>
       <c r="G13">
-        <v>0.947368421052632</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.06315789473684209</v>
+        <v>0.8125</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.005</v>
+        <v>10.765</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.0142564402810304</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-0.0114580314451161</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0379955115816729</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.132433258532563</v>
       </c>
       <c r="O13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q13">
         <v>1820825.9</v>
@@ -1432,19 +1444,19 @@
         <v>5674346.8</v>
       </c>
       <c r="S13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,7 +1464,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -1461,40 +1473,40 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>0.991101600566305</v>
+        <v>0.7175613461923041</v>
       </c>
       <c r="G14">
-        <v>0.626262626262626</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.101010101010101</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.001</v>
+        <v>0.015</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>-0.000479802955665</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.0001969002695417</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q14">
         <v>1820825.9</v>
@@ -1503,19 +1515,19 @@
         <v>5674346.8</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,7 +1535,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1532,22 +1544,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F15">
-        <v>0.0977547528911442</v>
+        <v>0.855303020573663</v>
       </c>
       <c r="G15">
-        <v>0.303030303030303</v>
+        <v>0.948979591836735</v>
       </c>
       <c r="H15">
-        <v>0.373737373737374</v>
+        <v>0.0612244897959184</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.008999999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1556,16 +1568,16 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0006012210924073</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q15">
         <v>1820825.9</v>
@@ -1574,19 +1586,19 @@
         <v>5674346.8</v>
       </c>
       <c r="S15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,7 +1606,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -1603,40 +1615,40 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F16">
-        <v>0.000430668566457</v>
+        <v>0.999826968295628</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.747474747474748</v>
       </c>
       <c r="H16">
-        <v>0.526315789473684</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>7.64</v>
+        <v>0.001</v>
       </c>
       <c r="K16">
-        <v>-0.0194134396355354</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.0285672126966327</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>-0.0107077589235727</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>-0.254102613030568</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q16">
         <v>1820825.9</v>
@@ -1645,16 +1657,19 @@
         <v>5674346.8</v>
       </c>
       <c r="S16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="W16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1662,49 +1677,49 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F17">
-        <v>0.140182542761315</v>
+        <v>0.0411871030642706</v>
       </c>
       <c r="G17">
-        <v>0.101010101010101</v>
+        <v>0.262626262626263</v>
       </c>
       <c r="H17">
-        <v>0.525252525252525</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.014</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K17">
-        <v>0.000332347588717</v>
+        <v>0.0003128211716341</v>
       </c>
       <c r="L17">
-        <v>-0.0001429549902152</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.000736719146512</v>
+        <v>0.0008115705007069001</v>
       </c>
       <c r="N17">
-        <v>2.37391134797868</v>
+        <v>3.47579079593468</v>
       </c>
       <c r="O17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q17">
         <v>1820825.9</v>
@@ -1713,19 +1728,229 @@
         <v>5674346.8</v>
       </c>
       <c r="S17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
+        <v>55</v>
+      </c>
+      <c r="V17" t="s">
+        <v>56</v>
+      </c>
+      <c r="W17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18">
+        <v>0.00078105969551</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0.510204081632653</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>7.635</v>
+      </c>
+      <c r="K18">
+        <v>-0.0153919089759799</v>
+      </c>
+      <c r="L18">
+        <v>-0.0227873805150667</v>
+      </c>
+      <c r="M18">
+        <v>-0.0077557778746175</v>
+      </c>
+      <c r="N18">
+        <v>-0.20159671219358</v>
+      </c>
+      <c r="O18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" t="s">
         <v>51</v>
       </c>
-      <c r="V17" t="s">
+      <c r="Q18">
+        <v>1820825.9</v>
+      </c>
+      <c r="R18">
+        <v>5674346.8</v>
+      </c>
+      <c r="S18" t="s">
+        <v>53</v>
+      </c>
+      <c r="T18" t="s">
+        <v>54</v>
+      </c>
+      <c r="U18" t="s">
+        <v>55</v>
+      </c>
+      <c r="V18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19">
+        <v>0.191127609719937</v>
+      </c>
+      <c r="G19">
+        <v>0.101010101010101</v>
+      </c>
+      <c r="H19">
+        <v>0.494949494949495</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.015</v>
+      </c>
+      <c r="K19">
+        <v>0.0002496582365003</v>
+      </c>
+      <c r="L19">
+        <v>-0.0001697790495333</v>
+      </c>
+      <c r="M19">
+        <v>0.000735280611557</v>
+      </c>
+      <c r="N19">
+        <v>1.66438824333561</v>
+      </c>
+      <c r="O19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19">
+        <v>1820825.9</v>
+      </c>
+      <c r="R19">
+        <v>5674346.8</v>
+      </c>
+      <c r="S19" t="s">
+        <v>53</v>
+      </c>
+      <c r="T19" t="s">
+        <v>54</v>
+      </c>
+      <c r="U19" t="s">
+        <v>55</v>
+      </c>
+      <c r="V19" t="s">
+        <v>56</v>
+      </c>
+      <c r="W19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20">
+        <v>0.0612107807840573</v>
+      </c>
+      <c r="G20">
+        <v>0.006578947368421</v>
+      </c>
+      <c r="H20">
+        <v>0.572368421052632</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>3.6</v>
+      </c>
+      <c r="K20">
+        <v>0.0830868971792538</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0.209396801458776</v>
+      </c>
+      <c r="N20">
+        <v>2.30796936609038</v>
+      </c>
+      <c r="O20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" t="s">
         <v>52</v>
       </c>
-      <c r="W17" t="s">
+      <c r="Q20">
+        <v>1820825.9</v>
+      </c>
+      <c r="R20">
+        <v>5674346.8</v>
+      </c>
+      <c r="S20" t="s">
+        <v>53</v>
+      </c>
+      <c r="T20" t="s">
         <v>54</v>
+      </c>
+      <c r="U20" t="s">
+        <v>55</v>
+      </c>
+      <c r="V20" t="s">
+        <v>56</v>
+      </c>
+      <c r="W20" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
